--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,21 +762,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>3-17</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -812,21 +812,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -987,21 +987,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1012,21 +1012,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GEO Zone</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1046,42 +1046,117 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Info: The target area is in an Altitude Zone</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>19</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GEO Zone Info:</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>20</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>6-13</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Missing</t>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>When exceeding nnn,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6-8</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9-13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,21 +762,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3-17</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -812,21 +812,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -987,21 +987,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1012,21 +1012,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
+          <t>GEO Zone</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1046,117 +1046,42 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>20</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6-13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>20</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>When exceeding nnn,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>20</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9-13</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
